--- a/municipal/ENG/Population/Share of urban population/Tskaltubo.xlsx
+++ b/municipal/ENG/Population/Share of urban population/Tskaltubo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\12 - ცხრილები და რელიზები\მუნიციპალური სტატისტიკა (რუკა)\ინგლისური\cx 30 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\123დემოგრაფია და მოსახლეობა\მოსახლეობა ქარ. EN\2. Share of urban population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3015D-81EC-4D81-AEEC-4CB53858079D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFA94A-C017-4A17-86E5-8B2DC46D32FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="615" windowWidth="12675" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="4455" windowWidth="17940" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tskaltubo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,10 +43,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +92,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -166,23 +179,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -204,9 +219,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,277 +514,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="11" customWidth="1"/>
-    <col min="3" max="44" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="17.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="8" customWidth="1"/>
+    <col min="3" max="44" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="11">
         <v>1994</v>
       </c>
-      <c r="B5" s="13">
-        <v>22.418478260869566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B5" s="12">
+        <v>22.418478260869598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="13">
         <v>1995</v>
       </c>
       <c r="B6" s="14">
-        <v>20.337339236769978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+        <v>20.337339236769999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="13">
         <v>1996</v>
       </c>
       <c r="B7" s="14">
-        <v>20.02980669058919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+        <v>20.029806690589201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="13">
         <v>1997</v>
       </c>
       <c r="B8" s="14">
-        <v>19.693467034946561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+        <v>19.6934670349466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="13">
         <v>1998</v>
       </c>
       <c r="B9" s="14">
-        <v>19.618101373903595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+        <v>19.618101373903599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="13">
         <v>1999</v>
       </c>
       <c r="B10" s="14">
-        <v>22.203430418774513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+        <v>22.203430418774499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="13">
         <v>2000</v>
       </c>
       <c r="B11" s="14">
-        <v>24.64125860607593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+        <v>24.641258606075901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="13">
         <v>2001</v>
       </c>
       <c r="B12" s="14">
-        <v>25.174461312438783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+        <v>25.174461312438801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="13">
         <v>2002</v>
       </c>
       <c r="B13" s="14">
-        <v>25.812995443480435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+        <v>25.8129954434804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="13">
         <v>2003</v>
       </c>
       <c r="B14" s="14">
-        <v>25.367977661034598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+        <v>25.367977661034601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="13">
         <v>2004</v>
       </c>
       <c r="B15" s="14">
-        <v>24.876184409586752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+        <v>24.876184409586799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="13">
         <v>2005</v>
       </c>
       <c r="B16" s="14">
-        <v>24.378749618001383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+        <v>24.3787496180014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17" s="13">
         <v>2006</v>
       </c>
       <c r="B17" s="14">
-        <v>23.854853144577334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+        <v>23.854853144577302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="A18" s="13">
         <v>2007</v>
       </c>
       <c r="B18" s="14">
-        <v>23.33769633507853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+        <v>23.337696335078501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
+      <c r="A19" s="13">
         <v>2008</v>
       </c>
       <c r="B19" s="14">
-        <v>22.835934400211613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+        <v>22.835934400211599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
+      <c r="A20" s="13">
         <v>2009</v>
       </c>
       <c r="B20" s="14">
-        <v>22.350027426405809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+        <v>22.350027426405799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
+      <c r="A21" s="13">
         <v>2010</v>
       </c>
       <c r="B21" s="14">
         <v>21.854138012009798</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
+      <c r="A22" s="13">
         <v>2011</v>
       </c>
       <c r="B22" s="14">
         <v>21.396059782608699</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
+      <c r="A23" s="13">
         <v>2012</v>
       </c>
       <c r="B23" s="14">
-        <v>20.947154751255763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+        <v>20.947154751255798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1">
+      <c r="A24" s="13">
         <v>2013</v>
       </c>
       <c r="B24" s="14">
-        <v>20.531102725075211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+        <v>20.531102725075201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1">
+      <c r="A25" s="13">
         <v>2014</v>
       </c>
       <c r="B25" s="14">
-        <v>20.136339800734138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+        <v>20.136339800734099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="13">
         <v>2015</v>
       </c>
       <c r="B26" s="14">
-        <v>20.016472989668575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+        <v>20.0164729896686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="A27" s="13">
         <v>2016</v>
       </c>
       <c r="B27" s="14">
-        <v>19.905466048701541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+        <v>19.905466048701498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1">
+      <c r="A28" s="13">
         <v>2017</v>
       </c>
       <c r="B28" s="14">
-        <v>19.787363074707205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+        <v>19.787363074707201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1">
+      <c r="A29" s="13">
         <v>2018</v>
       </c>
       <c r="B29" s="14">
         <v>19.6849781234808</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" ht="15" customHeight="1">
+      <c r="A30" s="13">
         <v>2019</v>
       </c>
       <c r="B30" s="14">
-        <v>19.579209912301877</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+        <v>19.579209912301899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1">
+      <c r="A31" s="13">
         <v>2020</v>
       </c>
       <c r="B31" s="14">
-        <v>19.455992646290767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+        <v>19.455992646290799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="10" customFormat="1">
+      <c r="A32" s="13">
         <v>2021</v>
       </c>
       <c r="B32" s="14">
-        <v>19.49661346494883</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+        <v>19.496613464948801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="10" customFormat="1">
+      <c r="A33" s="13">
         <v>2022</v>
       </c>
-      <c r="B33" s="15">
-        <v>19.280701361017069</v>
+      <c r="B33" s="14">
+        <v>19.280701361017101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="10" customFormat="1">
+      <c r="A34" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="14">
+        <v>19.489377390663201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="15">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="16">
+        <v>18.8084737553216</v>
       </c>
     </row>
   </sheetData>
